--- a/data_raw/map_for_compilation_OM16.xlsx
+++ b/data_raw/map_for_compilation_OM16.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melo.d/Desktop/Research/Oman_fieldwork/Samail_16S_compilation/data_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2DF84E-0C71-E848-93A5-96AC9BC7FC45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF997CC-A9CB-D345-8831-49DD1899C48E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="11220" windowWidth="38400" windowHeight="10380" xr2:uid="{8FA938D1-D892-E848-A49F-8DF12B7A5192}"/>
   </bookViews>
@@ -101,66 +101,36 @@
     <t>forward_linker_primer_sequence</t>
   </si>
   <si>
-    <t>WAB71.2016</t>
-  </si>
-  <si>
     <t>TGGGACATATCC</t>
   </si>
   <si>
     <t>AA</t>
   </si>
   <si>
-    <t>WAB188.2016</t>
-  </si>
-  <si>
     <t>CACCTCCAAGGT</t>
   </si>
   <si>
-    <t>WAB56.2016</t>
-  </si>
-  <si>
     <t>CTAAATACCCTT</t>
   </si>
   <si>
-    <t>WAB104.2016</t>
-  </si>
-  <si>
     <t>TACGTTTGGCGA</t>
   </si>
   <si>
-    <t>WAB12.2016</t>
-  </si>
-  <si>
     <t>GTTGTATTATAC</t>
   </si>
   <si>
-    <t>WAB55.2016</t>
-  </si>
-  <si>
     <t>CTCCTGTCCGGA</t>
   </si>
   <si>
-    <t>WAB103.2016</t>
-  </si>
-  <si>
     <t>AGCCTGGTACCT</t>
   </si>
   <si>
-    <t>NSHQ10.2016</t>
-  </si>
-  <si>
     <t>GGAAGCTTAACT</t>
   </si>
   <si>
-    <t>WAB105.2016</t>
-  </si>
-  <si>
     <t>ATAATCTAATCC</t>
   </si>
   <si>
-    <t>NSHQ14.2016</t>
-  </si>
-  <si>
     <t>GCCAGGCTTCCT</t>
   </si>
   <si>
@@ -228,6 +198,36 @@
   </si>
   <si>
     <t>NSHQ14</t>
+  </si>
+  <si>
+    <t>WAB71_2016</t>
+  </si>
+  <si>
+    <t>WAB188_2016</t>
+  </si>
+  <si>
+    <t>WAB56_2016</t>
+  </si>
+  <si>
+    <t>WAB104_2016</t>
+  </si>
+  <si>
+    <t>WAB12_2016</t>
+  </si>
+  <si>
+    <t>WAB55_2016</t>
+  </si>
+  <si>
+    <t>WAB103_2016</t>
+  </si>
+  <si>
+    <t>NSHQ10_2016</t>
+  </si>
+  <si>
+    <t>WAB105_2016</t>
+  </si>
+  <si>
+    <t>NSHQ14_2016</t>
   </si>
 </sst>
 </file>
@@ -611,7 +611,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -690,25 +690,25 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H2" s="3">
         <v>2016</v>
@@ -723,22 +723,22 @@
         <v>50</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="R2" s="6">
         <v>136.5</v>
@@ -750,7 +750,7 @@
         <v>1</v>
       </c>
       <c r="U2" s="7" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="V2" s="5">
         <v>8.1999999999999993</v>
@@ -758,25 +758,25 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H3" s="3">
         <v>2016</v>
@@ -791,22 +791,22 @@
         <v>30</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="R3" s="6">
         <v>78</v>
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="U3" s="7" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="V3" s="5">
         <v>7.9</v>
@@ -826,25 +826,25 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H4" s="3">
         <v>2016</v>
@@ -859,22 +859,22 @@
         <v>50</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="R4" s="6">
         <v>106</v>
@@ -886,7 +886,7 @@
         <v>1</v>
       </c>
       <c r="U4" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="V4" s="5">
         <v>6.7</v>
@@ -894,25 +894,25 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="H5" s="3">
         <v>2016</v>
@@ -927,22 +927,22 @@
         <v>70</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="R5" s="6">
         <v>120.4</v>
@@ -954,7 +954,7 @@
         <v>1</v>
       </c>
       <c r="U5" s="7" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="V5" s="5">
         <v>32.9</v>
@@ -962,93 +962,93 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="H6" s="2">
         <v>2012</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H7" s="3">
         <v>2016</v>
@@ -1063,22 +1063,22 @@
         <v>50</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="R7" s="6">
         <v>102</v>
@@ -1090,7 +1090,7 @@
         <v>1</v>
       </c>
       <c r="U7" s="7" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="V7" s="5">
         <v>6.7</v>
@@ -1098,25 +1098,25 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="G8" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H8" s="3">
         <v>2016</v>
@@ -1131,22 +1131,22 @@
         <v>50</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="R8" s="6">
         <v>101</v>
@@ -1158,7 +1158,7 @@
         <v>1</v>
       </c>
       <c r="U8" s="7" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="V8" s="5">
         <v>15.24</v>
@@ -1166,25 +1166,25 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H9" s="3">
         <v>2016</v>
@@ -1199,22 +1199,22 @@
         <v>50</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="R9" s="6">
         <v>304</v>
@@ -1226,7 +1226,7 @@
         <v>1</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="V9" s="5">
         <v>14.3</v>
@@ -1234,25 +1234,25 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H10" s="3">
         <v>2016</v>
@@ -1267,22 +1267,22 @@
         <v>50</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="R10" s="6">
         <v>120.5</v>
@@ -1294,7 +1294,7 @@
         <v>1</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="V10" s="5">
         <v>15.24</v>
@@ -1302,25 +1302,25 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="H11" s="3">
         <v>2016</v>
@@ -1335,22 +1335,22 @@
         <v>70</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="R11" s="6">
         <v>304</v>
@@ -1362,7 +1362,7 @@
         <v>1</v>
       </c>
       <c r="U11" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="V11" s="5">
         <v>8.8000000000000007</v>

--- a/data_raw/map_for_compilation_OM16.xlsx
+++ b/data_raw/map_for_compilation_OM16.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melo.d/Desktop/Research/Oman_fieldwork/Samail_16S_compilation/data_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF997CC-A9CB-D345-8831-49DD1899C48E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32595A5-4ED7-E74B-A3C0-CCA4E4EF4D09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="11220" windowWidth="38400" windowHeight="10380" xr2:uid="{8FA938D1-D892-E848-A49F-8DF12B7A5192}"/>
+    <workbookView xWindow="-80" yWindow="12640" windowWidth="38400" windowHeight="10380" xr2:uid="{8FA938D1-D892-E848-A49F-8DF12B7A5192}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="66">
   <si>
     <t>year_sampled</t>
   </si>
@@ -228,6 +228,9 @@
   </si>
   <si>
     <t>NSHQ14_2016</t>
+  </si>
+  <si>
+    <t>17.5-65.5</t>
   </si>
 </sst>
 </file>
@@ -272,10 +275,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -608,10 +610,10 @@
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -621,750 +623,750 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="2">
         <v>2016</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="2">
         <v>2</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="2">
         <v>28</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="4">
         <v>50</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M2" s="5" t="s">
+      <c r="L2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" s="6">
+      <c r="N2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="5">
         <v>136.5</v>
       </c>
-      <c r="S2" s="6">
+      <c r="S2" s="5">
         <v>136.5</v>
       </c>
-      <c r="T2" s="6">
+      <c r="T2" s="5">
         <v>1</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="U2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="V2" s="5">
+      <c r="V2" s="4">
         <v>8.1999999999999993</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>2016</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="2">
         <v>3</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="2">
         <v>2</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="4">
         <v>30</v>
       </c>
-      <c r="L3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" s="5" t="s">
+      <c r="L3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="R3" s="6">
+      <c r="N3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" s="5">
         <v>78</v>
       </c>
-      <c r="S3" s="6">
+      <c r="S3" s="5">
         <v>78</v>
       </c>
-      <c r="T3" s="6">
+      <c r="T3" s="5">
         <v>1</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="U3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="V3" s="5">
+      <c r="V3" s="4">
         <v>7.9</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>2016</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <v>3</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <v>4</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <v>50</v>
       </c>
-      <c r="L4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" s="5" t="s">
+      <c r="L4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="R4" s="6">
+      <c r="N4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R4" s="5">
         <v>106</v>
       </c>
-      <c r="S4" s="6">
+      <c r="S4" s="5">
         <v>106</v>
       </c>
-      <c r="T4" s="6">
+      <c r="T4" s="5">
         <v>1</v>
       </c>
-      <c r="U4" s="7" t="s">
+      <c r="U4" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="V4" s="5">
+      <c r="V4" s="4">
         <v>6.7</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>2016</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="2">
         <v>2</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="2">
         <v>29</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <v>70</v>
       </c>
-      <c r="L5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M5" s="5" t="s">
+      <c r="L5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="N5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="R5" s="6">
+      <c r="N5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R5" s="5">
         <v>120.4</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5" s="5">
         <v>120.4</v>
       </c>
-      <c r="T5" s="6">
+      <c r="T5" s="5">
         <v>1</v>
       </c>
-      <c r="U5" s="7" t="s">
+      <c r="U5" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="V5" s="5">
+      <c r="V5" s="4">
         <v>32.9</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="4" t="s">
         <v>45</v>
       </c>
       <c r="H6" s="2">
-        <v>2012</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>33</v>
+        <v>2016</v>
+      </c>
+      <c r="I6" s="4">
+        <v>3</v>
+      </c>
+      <c r="J6" s="4">
+        <v>3</v>
+      </c>
+      <c r="K6" s="4">
+        <v>50</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R6" s="4">
+        <v>77</v>
+      </c>
+      <c r="S6" s="4">
+        <v>65.5</v>
+      </c>
+      <c r="T6" s="5">
+        <v>1</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="V6" s="4">
+        <v>42.9</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="D7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <v>2016</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="2">
         <v>3</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="2">
         <v>4</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="4">
         <v>50</v>
       </c>
-      <c r="L7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" s="5" t="s">
+      <c r="L7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="N7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="R7" s="6">
+      <c r="N7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R7" s="5">
         <v>102</v>
       </c>
-      <c r="S7" s="6">
+      <c r="S7" s="5">
         <v>102</v>
       </c>
-      <c r="T7" s="6">
+      <c r="T7" s="5">
         <v>1</v>
       </c>
-      <c r="U7" s="7" t="s">
+      <c r="U7" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="V7" s="5">
+      <c r="V7" s="4">
         <v>6.7</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="D8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>2016</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="2">
         <v>3</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="2">
         <v>1</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="4">
         <v>50</v>
       </c>
-      <c r="L8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8" s="5" t="s">
+      <c r="L8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="N8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="R8" s="6">
+      <c r="N8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R8" s="5">
         <v>101</v>
       </c>
-      <c r="S8" s="6">
+      <c r="S8" s="5">
         <v>101</v>
       </c>
-      <c r="T8" s="6">
+      <c r="T8" s="5">
         <v>1</v>
       </c>
-      <c r="U8" s="7" t="s">
+      <c r="U8" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="V8" s="5">
+      <c r="V8" s="4">
         <v>15.24</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="D9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <v>2016</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="2">
         <v>3</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="2">
         <v>5</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="4">
         <v>50</v>
       </c>
-      <c r="L9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M9" s="5" t="s">
+      <c r="L9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="N9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="R9" s="6">
+      <c r="N9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R9" s="5">
         <v>304</v>
       </c>
-      <c r="S9" s="6">
+      <c r="S9" s="5">
         <v>5.8</v>
       </c>
-      <c r="T9" s="6">
+      <c r="T9" s="5">
         <v>1</v>
       </c>
-      <c r="U9" s="7" t="s">
+      <c r="U9" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="V9" s="5">
+      <c r="V9" s="4">
         <v>14.3</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="D10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <v>2016</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="2">
         <v>2</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="2">
         <v>29</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="4">
         <v>50</v>
       </c>
-      <c r="L10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M10" s="5" t="s">
+      <c r="L10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="N10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="R10" s="6">
+      <c r="N10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R10" s="5">
         <v>120.5</v>
       </c>
-      <c r="S10" s="6">
+      <c r="S10" s="5">
         <v>120.5</v>
       </c>
-      <c r="T10" s="6">
+      <c r="T10" s="5">
         <v>1</v>
       </c>
-      <c r="U10" s="7" t="s">
+      <c r="U10" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="V10" s="5">
+      <c r="V10" s="4">
         <v>15.24</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="D11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>2016</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="2">
         <v>2</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="2">
         <v>29</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="4">
         <v>70</v>
       </c>
-      <c r="L11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="M11" s="5" t="s">
+      <c r="L11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="N11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="O11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="R11" s="6">
+      <c r="N11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R11" s="5">
         <v>304</v>
       </c>
-      <c r="S11" s="6">
+      <c r="S11" s="5">
         <v>5.8</v>
       </c>
-      <c r="T11" s="6">
+      <c r="T11" s="5">
         <v>1</v>
       </c>
-      <c r="U11" s="7" t="s">
+      <c r="U11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="V11" s="5">
+      <c r="V11" s="4">
         <v>8.8000000000000007</v>
       </c>
     </row>
